--- a/REGULAR/MAYORS OFFICE/MONTENEGRO, HELEN.xlsx
+++ b/REGULAR/MAYORS OFFICE/MONTENEGRO, HELEN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13AB323-CE17-412D-9E24-7EE5F10A62DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="259">
   <si>
     <t>PERIOD</t>
   </si>
@@ -806,12 +805,18 @@
   </si>
   <si>
     <t>11/28 - 12/1,6,7,15/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/28,29/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1693,7 +1698,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,7 +1741,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1805,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1865,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1931,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +1994,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2087,7 +2092,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,7 +2151,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,7 +2216,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2259,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2334,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2520,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2586,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2639,7 +2644,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2705,7 +2710,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2761,7 +2766,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,7 +2841,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2884,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2945,7 +2950,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3001,7 +3006,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3099,7 +3104,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3167,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3211,7 +3216,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3228,25 +3233,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K380" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K381" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3258,13 +3263,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3273,14 +3278,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3584,7 +3589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3594,7 +3599,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3602,34 +3607,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K380"/>
+  <dimension ref="A2:K381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A361" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A361" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="C375" sqref="C375"/>
+      <selection pane="bottomLeft" activeCell="E370" sqref="E370"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3652,7 +3657,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3672,7 +3677,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3694,7 +3699,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3702,7 +3707,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3715,7 +3720,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -3732,7 +3737,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3767,7 +3772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3776,7 +3781,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>120.59099999999995</v>
+        <v>121.84099999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3786,12 +3791,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>37</v>
+        <v>36.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3813,7 +3818,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>37655</v>
       </c>
@@ -3833,7 +3838,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>37681</v>
       </c>
@@ -3853,7 +3858,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>37712</v>
@@ -3874,7 +3879,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A21" si="0">EDATE(A13,1)</f>
         <v>37742</v>
@@ -3895,7 +3900,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -3916,7 +3921,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -3937,7 +3942,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -3958,7 +3963,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -3979,7 +3984,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>37895</v>
@@ -4000,7 +4005,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>37926</v>
@@ -4021,7 +4026,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>37956</v>
@@ -4048,7 +4053,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>46</v>
       </c>
@@ -4066,7 +4071,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>37987</v>
       </c>
@@ -4086,7 +4091,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f>EDATE(A23,1)</f>
         <v>38018</v>
@@ -4111,7 +4116,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" ref="A25:A36" si="1">EDATE(A24,1)</f>
         <v>38047</v>
@@ -4138,7 +4143,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -4159,7 +4164,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -4180,7 +4185,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -4201,7 +4206,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -4228,7 +4233,7 @@
         <v>11140</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -4253,7 +4258,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -4282,7 +4287,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>54</v>
@@ -4302,7 +4307,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>38261</v>
@@ -4329,7 +4334,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>51</v>
@@ -4351,7 +4356,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>38292</v>
@@ -4378,7 +4383,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -4405,7 +4410,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>58</v>
       </c>
@@ -4423,7 +4428,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>38353</v>
       </c>
@@ -4449,7 +4454,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f>EDATE(A38,1)</f>
         <v>38384</v>
@@ -4470,7 +4475,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" ref="A40:A51" si="2">EDATE(A39,1)</f>
         <v>38412</v>
@@ -4497,7 +4502,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>38443</v>
@@ -4524,7 +4529,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>65</v>
@@ -4544,7 +4549,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>66</v>
@@ -4566,7 +4571,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A41,1)</f>
         <v>38473</v>
@@ -4593,7 +4598,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -4620,7 +4625,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -4641,7 +4646,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -4662,7 +4667,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>38596</v>
@@ -4689,7 +4694,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>61</v>
@@ -4711,7 +4716,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>38626</v>
@@ -4738,7 +4743,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -4759,7 +4764,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>38687</v>
@@ -4780,7 +4785,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>74</v>
       </c>
@@ -4798,7 +4803,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>38718</v>
       </c>
@@ -4818,7 +4823,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f>EDATE(A54,1)</f>
         <v>38749</v>
@@ -4839,7 +4844,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>38777</v>
@@ -4866,7 +4871,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" ref="A57:A65" si="3">EDATE(A56,1)</f>
         <v>38808</v>
@@ -4893,7 +4898,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>38838</v>
@@ -4914,7 +4919,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>38869</v>
@@ -4941,7 +4946,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>38899</v>
@@ -4962,7 +4967,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>38930</v>
@@ -4989,7 +4994,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>80</v>
@@ -5009,7 +5014,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>38961</v>
@@ -5034,7 +5039,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A63,1)</f>
         <v>38991</v>
@@ -5059,7 +5064,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>39022</v>
@@ -5084,7 +5089,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>49</v>
@@ -5103,7 +5108,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>83</v>
@@ -5120,7 +5125,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f>EDATE(A65,1)</f>
         <v>39052</v>
@@ -5145,7 +5150,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>86</v>
       </c>
@@ -5163,7 +5168,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>39083</v>
       </c>
@@ -5191,7 +5196,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>89</v>
@@ -5210,7 +5215,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>39114</v>
@@ -5235,7 +5240,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" ref="A73:A86" si="4">EDATE(A72,1)</f>
         <v>39142</v>
@@ -5264,7 +5269,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>95</v>
@@ -5283,7 +5288,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>96</v>
@@ -5300,7 +5305,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A73,1)</f>
         <v>39173</v>
@@ -5325,7 +5330,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>97</v>
@@ -5345,7 +5350,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A76,1)</f>
         <v>39203</v>
@@ -5372,7 +5377,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>39234</v>
@@ -5393,7 +5398,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>39264</v>
@@ -5420,7 +5425,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>39295</v>
@@ -5447,7 +5452,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>61</v>
@@ -5466,7 +5471,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>39326</v>
@@ -5493,7 +5498,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>39356</v>
@@ -5514,7 +5519,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A84,1)</f>
         <v>39387</v>
@@ -5535,7 +5540,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>39417</v>
@@ -5562,7 +5567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>99</v>
@@ -5584,7 +5589,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>102</v>
       </c>
@@ -5602,7 +5607,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>39448</v>
       </c>
@@ -5622,7 +5627,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f>EDATE(A89,1)</f>
         <v>39479</v>
@@ -5647,7 +5652,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" ref="A91:A100" si="5">EDATE(A90,1)</f>
         <v>39508</v>
@@ -5668,7 +5673,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>39539</v>
@@ -5689,7 +5694,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="5"/>
         <v>39569</v>
@@ -5710,7 +5715,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="5"/>
         <v>39600</v>
@@ -5731,7 +5736,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="5"/>
         <v>39630</v>
@@ -5752,7 +5757,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>39661</v>
@@ -5773,7 +5778,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>39692</v>
@@ -5794,7 +5799,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>39722</v>
@@ -5815,7 +5820,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>39753</v>
@@ -5836,7 +5841,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>39783</v>
@@ -5861,7 +5866,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>76</v>
@@ -5881,7 +5886,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>105</v>
       </c>
@@ -5899,7 +5904,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>39814</v>
       </c>
@@ -5919,7 +5924,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f>EDATE(A103,1)</f>
         <v>39845</v>
@@ -5940,7 +5945,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" ref="A105:A113" si="6">EDATE(A104,1)</f>
         <v>39873</v>
@@ -5961,7 +5966,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="6"/>
         <v>39904</v>
@@ -5982,7 +5987,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>39934</v>
@@ -6003,7 +6008,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -6024,7 +6029,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -6045,7 +6050,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>40026</v>
@@ -6066,7 +6071,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -6087,7 +6092,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>40087</v>
@@ -6108,7 +6113,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -6135,7 +6140,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>99</v>
@@ -6153,7 +6158,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>40148</v>
@@ -6174,7 +6179,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>107</v>
       </c>
@@ -6192,7 +6197,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>40179</v>
       </c>
@@ -6212,7 +6217,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f>EDATE(A117,1)</f>
         <v>40210</v>
@@ -6233,7 +6238,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" ref="A119:A133" si="7">EDATE(A118,1)</f>
         <v>40238</v>
@@ -6254,7 +6259,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="7"/>
         <v>40269</v>
@@ -6279,7 +6284,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>65</v>
@@ -6299,7 +6304,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f>EDATE(A120,1)</f>
         <v>40299</v>
@@ -6326,7 +6331,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>110</v>
@@ -6341,7 +6346,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>111</v>
@@ -6356,7 +6361,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>112</v>
@@ -6371,7 +6376,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A122,1)</f>
         <v>40330</v>
@@ -6396,7 +6401,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>114</v>
@@ -6416,7 +6421,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f>EDATE(A126,1)</f>
         <v>40360</v>
@@ -6441,7 +6446,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>40391</v>
@@ -6468,7 +6473,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>116</v>
@@ -6488,7 +6493,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>40422</v>
@@ -6513,7 +6518,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="7"/>
         <v>40452</v>
@@ -6534,7 +6539,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>40483</v>
@@ -6559,7 +6564,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f>EDATE(A133,1)</f>
         <v>40513</v>
@@ -6584,7 +6589,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>120</v>
       </c>
@@ -6602,7 +6607,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>40544</v>
       </c>
@@ -6626,7 +6631,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>130</v>
@@ -6646,7 +6651,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f>EDATE(A136,1)</f>
         <v>40575</v>
@@ -6667,7 +6672,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A146" si="8">EDATE(A138,1)</f>
         <v>40603</v>
@@ -6688,7 +6693,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>40634</v>
@@ -6715,7 +6720,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>131</v>
@@ -6735,7 +6740,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>40664</v>
@@ -6760,7 +6765,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="8"/>
         <v>40695</v>
@@ -6785,7 +6790,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="8"/>
         <v>40725</v>
@@ -6810,7 +6815,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -6835,7 +6840,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -6862,7 +6867,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>135</v>
@@ -6882,7 +6887,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>40817</v>
@@ -6909,7 +6914,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>138</v>
@@ -6929,7 +6934,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f>EDATE(A148,1)</f>
         <v>40848</v>
@@ -6954,7 +6959,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A150,1)</f>
         <v>40878</v>
@@ -6981,7 +6986,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>140</v>
@@ -7001,7 +7006,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="48" t="s">
         <v>121</v>
       </c>
@@ -7019,7 +7024,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>40909</v>
       </c>
@@ -7043,7 +7048,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="41"/>
       <c r="B155" s="15" t="s">
         <v>142</v>
@@ -7063,7 +7068,7 @@
       <c r="J155" s="12"/>
       <c r="K155" s="15"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="41">
         <f>EDATE(A154,1)</f>
         <v>40940</v>
@@ -7088,7 +7093,7 @@
       <c r="J156" s="12"/>
       <c r="K156" s="15"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="41">
         <f t="shared" ref="A157:A170" si="9">EDATE(A156,1)</f>
         <v>40969</v>
@@ -7111,7 +7116,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="41"/>
       <c r="B158" s="20" t="s">
         <v>65</v>
@@ -7126,7 +7131,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="41"/>
       <c r="B159" s="20" t="s">
         <v>65</v>
@@ -7141,7 +7146,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="41"/>
       <c r="B160" s="20" t="s">
         <v>144</v>
@@ -7158,7 +7163,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="41">
         <f>EDATE(A157,1)</f>
         <v>41000</v>
@@ -7181,7 +7186,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="41"/>
       <c r="B162" s="20" t="s">
         <v>145</v>
@@ -7201,7 +7206,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="41">
         <f>EDATE(A161,1)</f>
         <v>41030</v>
@@ -7226,7 +7231,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="41"/>
       <c r="B164" s="20" t="s">
         <v>49</v>
@@ -7243,7 +7248,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="41"/>
       <c r="B165" s="20" t="s">
         <v>146</v>
@@ -7260,7 +7265,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="41">
         <f>EDATE(A163,1)</f>
         <v>41061</v>
@@ -7285,7 +7290,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="41">
         <f t="shared" si="9"/>
         <v>41091</v>
@@ -7312,7 +7317,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="41"/>
       <c r="B168" s="20" t="s">
         <v>147</v>
@@ -7332,7 +7337,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="41">
         <f>EDATE(A167,1)</f>
         <v>41122</v>
@@ -7357,7 +7362,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41">
         <f t="shared" si="9"/>
         <v>41153</v>
@@ -7380,7 +7385,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="41"/>
       <c r="B171" s="20" t="s">
         <v>149</v>
@@ -7400,7 +7405,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="41">
         <f>EDATE(A170,1)</f>
         <v>41183</v>
@@ -7427,7 +7432,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="41"/>
       <c r="B173" s="20" t="s">
         <v>152</v>
@@ -7447,7 +7452,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="41">
         <f>EDATE(A172,1)</f>
         <v>41214</v>
@@ -7468,7 +7473,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41">
         <f>EDATE(A174,1)</f>
         <v>41244</v>
@@ -7493,7 +7498,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="41"/>
       <c r="B176" s="20" t="s">
         <v>153</v>
@@ -7513,7 +7518,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="48" t="s">
         <v>122</v>
       </c>
@@ -7531,7 +7536,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>41275</v>
       </c>
@@ -7555,7 +7560,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>154</v>
@@ -7572,7 +7577,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>41306</v>
@@ -7597,7 +7602,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" ref="A181:A197" si="10">EDATE(A180,1)</f>
         <v>41334</v>
@@ -7622,7 +7627,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>49</v>
@@ -7641,7 +7646,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>41365</v>
@@ -7666,7 +7671,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>150</v>
@@ -7683,7 +7688,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>156</v>
@@ -7700,7 +7705,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A183,1)</f>
         <v>41395</v>
@@ -7725,7 +7730,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="10"/>
         <v>41426</v>
@@ -7750,7 +7755,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="10"/>
         <v>41456</v>
@@ -7775,7 +7780,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -7800,7 +7805,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -7827,7 +7832,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>49</v>
@@ -7846,7 +7851,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>49</v>
@@ -7865,7 +7870,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>164</v>
@@ -7884,7 +7889,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>165</v>
@@ -7901,7 +7906,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f>EDATE(A190,1)</f>
         <v>41548</v>
@@ -7922,7 +7927,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f>EDATE(A195,1)</f>
         <v>41579</v>
@@ -7947,7 +7952,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -7972,7 +7977,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="48" t="s">
         <v>123</v>
       </c>
@@ -7990,7 +7995,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41">
         <v>41640</v>
       </c>
@@ -8010,7 +8015,7 @@
       <c r="J199" s="12"/>
       <c r="K199" s="15"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f>EDATE(A199,1)</f>
         <v>41671</v>
@@ -8035,7 +8040,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>65</v>
@@ -8055,7 +8060,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f>EDATE(A200,1)</f>
         <v>41699</v>
@@ -8082,7 +8087,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>65</v>
@@ -8097,7 +8102,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f>EDATE(A202,1)</f>
         <v>41730</v>
@@ -8118,7 +8123,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f t="shared" ref="A205:A211" si="11">EDATE(A204,1)</f>
         <v>41760</v>
@@ -8139,7 +8144,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" si="11"/>
         <v>41791</v>
@@ -8166,7 +8171,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>66</v>
@@ -8188,7 +8193,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f>EDATE(A206,1)</f>
         <v>41821</v>
@@ -8209,7 +8214,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" si="11"/>
         <v>41852</v>
@@ -8230,7 +8235,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" si="11"/>
         <v>41883</v>
@@ -8255,7 +8260,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" si="11"/>
         <v>41913</v>
@@ -8282,7 +8287,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>49</v>
@@ -8304,7 +8309,7 @@
         <v>47027</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f>EDATE(A211,1)</f>
         <v>41944</v>
@@ -8325,7 +8330,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f>EDATE(A213,1)</f>
         <v>41974</v>
@@ -8346,7 +8351,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="48" t="s">
         <v>124</v>
       </c>
@@ -8364,7 +8369,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>42005</v>
       </c>
@@ -8384,7 +8389,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A216,1)</f>
         <v>42036</v>
@@ -8411,7 +8416,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f t="shared" ref="A218:A226" si="12">EDATE(A217,1)</f>
         <v>42064</v>
@@ -8436,7 +8441,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>65</v>
@@ -8456,7 +8461,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>42095</v>
@@ -8477,7 +8482,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="12"/>
         <v>42125</v>
@@ -8498,7 +8503,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="12"/>
         <v>42156</v>
@@ -8519,7 +8524,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="12"/>
         <v>42186</v>
@@ -8540,7 +8545,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="12"/>
         <v>42217</v>
@@ -8561,7 +8566,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f t="shared" si="12"/>
         <v>42248</v>
@@ -8582,7 +8587,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" si="12"/>
         <v>42278</v>
@@ -8609,7 +8614,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>99</v>
@@ -8631,7 +8636,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>42309</v>
@@ -8658,7 +8663,7 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>76</v>
@@ -8680,7 +8685,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>42339</v>
@@ -8701,7 +8706,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="48" t="s">
         <v>125</v>
       </c>
@@ -8719,7 +8724,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>42370</v>
       </c>
@@ -8739,7 +8744,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f>EDATE(A232,1)</f>
         <v>42401</v>
@@ -8766,7 +8771,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f t="shared" ref="A234:A242" si="13">EDATE(A233,1)</f>
         <v>42430</v>
@@ -8793,7 +8798,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f t="shared" si="13"/>
         <v>42461</v>
@@ -8814,7 +8819,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="13"/>
         <v>42491</v>
@@ -8839,7 +8844,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="13"/>
         <v>42522</v>
@@ -8860,7 +8865,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="13"/>
         <v>42552</v>
@@ -8881,7 +8886,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" si="13"/>
         <v>42583</v>
@@ -8902,7 +8907,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="13"/>
         <v>42614</v>
@@ -8923,7 +8928,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="13"/>
         <v>42644</v>
@@ -8950,7 +8955,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="13"/>
         <v>42675</v>
@@ -8971,7 +8976,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f>EDATE(A242,1)</f>
         <v>42705</v>
@@ -8992,7 +8997,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="48" t="s">
         <v>126</v>
       </c>
@@ -9010,7 +9015,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>42736</v>
       </c>
@@ -9030,7 +9035,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f>EDATE(A245,1)</f>
         <v>42767</v>
@@ -9051,7 +9056,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" ref="A247:A261" si="14">EDATE(A246,1)</f>
         <v>42795</v>
@@ -9078,7 +9083,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>49</v>
@@ -9097,7 +9102,7 @@
         <v>11383</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>65</v>
@@ -9114,7 +9119,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A247,1)</f>
         <v>42826</v>
@@ -9135,7 +9140,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" si="14"/>
         <v>42856</v>
@@ -9160,7 +9165,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>49</v>
@@ -9182,7 +9187,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f>EDATE(A251,1)</f>
         <v>42887</v>
@@ -9203,7 +9208,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="14"/>
         <v>42917</v>
@@ -9224,7 +9229,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" si="14"/>
         <v>42948</v>
@@ -9251,7 +9256,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" si="14"/>
         <v>42979</v>
@@ -9272,7 +9277,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f t="shared" si="14"/>
         <v>43009</v>
@@ -9299,7 +9304,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>76</v>
@@ -9318,7 +9323,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>49</v>
@@ -9337,7 +9342,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A257,1)</f>
         <v>43040</v>
@@ -9358,7 +9363,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="14"/>
         <v>43070</v>
@@ -9379,7 +9384,7 @@
       <c r="J261" s="12"/>
       <c r="K261" s="15"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="48" t="s">
         <v>127</v>
       </c>
@@ -9397,7 +9402,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>43101</v>
       </c>
@@ -9423,7 +9428,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>43132</v>
@@ -9444,7 +9449,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" ref="A265:A278" si="15">EDATE(A264,1)</f>
         <v>43160</v>
@@ -9465,7 +9470,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="15"/>
         <v>43191</v>
@@ -9490,7 +9495,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="15"/>
         <v>43221</v>
@@ -9515,7 +9520,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>99</v>
@@ -9534,7 +9539,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>49</v>
@@ -9553,7 +9558,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A267,1)</f>
         <v>43252</v>
@@ -9574,7 +9579,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="15"/>
         <v>43282</v>
@@ -9601,7 +9606,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" si="15"/>
         <v>43313</v>
@@ -9622,7 +9627,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" si="15"/>
         <v>43344</v>
@@ -9649,7 +9654,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>49</v>
@@ -9668,7 +9673,7 @@
         <v>46266</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>43374</v>
@@ -9695,7 +9700,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>99</v>
@@ -9717,7 +9722,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>43405</v>
@@ -9738,7 +9743,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="15"/>
         <v>43435</v>
@@ -9765,7 +9770,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="48" t="s">
         <v>195</v>
       </c>
@@ -9783,7 +9788,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>43466</v>
       </c>
@@ -9809,7 +9814,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>43497</v>
@@ -9830,7 +9835,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" ref="A282:A294" si="16">EDATE(A281,1)</f>
         <v>43525</v>
@@ -9851,7 +9856,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="16"/>
         <v>43556</v>
@@ -9876,7 +9881,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>65</v>
@@ -9896,7 +9901,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>49</v>
@@ -9915,7 +9920,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>49</v>
@@ -9934,7 +9939,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>49</v>
@@ -9953,7 +9958,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A283,1)</f>
         <v>43586</v>
@@ -9974,7 +9979,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" si="16"/>
         <v>43617</v>
@@ -9995,7 +10000,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="16"/>
         <v>43647</v>
@@ -10016,7 +10021,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="16"/>
         <v>43678</v>
@@ -10043,7 +10048,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f t="shared" si="16"/>
         <v>43709</v>
@@ -10070,7 +10075,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f t="shared" si="16"/>
         <v>43739</v>
@@ -10097,7 +10102,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f t="shared" si="16"/>
         <v>43770</v>
@@ -10118,7 +10123,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f>EDATE(A294,1)</f>
         <v>43800</v>
@@ -10145,7 +10150,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="48" t="s">
         <v>201</v>
       </c>
@@ -10163,7 +10168,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>43831</v>
       </c>
@@ -10183,7 +10188,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A297,1)</f>
         <v>43862</v>
@@ -10208,7 +10213,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f t="shared" ref="A299:A309" si="17">EDATE(A298,1)</f>
         <v>43891</v>
@@ -10233,7 +10238,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="17"/>
         <v>43922</v>
@@ -10254,7 +10259,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f t="shared" si="17"/>
         <v>43952</v>
@@ -10275,7 +10280,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f t="shared" si="17"/>
         <v>43983</v>
@@ -10296,7 +10301,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f t="shared" si="17"/>
         <v>44013</v>
@@ -10317,7 +10322,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" si="17"/>
         <v>44044</v>
@@ -10338,7 +10343,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" si="17"/>
         <v>44075</v>
@@ -10365,7 +10370,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>206</v>
@@ -10387,7 +10392,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f>EDATE(A305,1)</f>
         <v>44105</v>
@@ -10408,7 +10413,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" si="17"/>
         <v>44136</v>
@@ -10429,7 +10434,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f t="shared" si="17"/>
         <v>44166</v>
@@ -10450,7 +10455,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="48" t="s">
         <v>208</v>
       </c>
@@ -10468,7 +10473,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>44197</v>
       </c>
@@ -10488,7 +10493,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A311,1)</f>
         <v>44228</v>
@@ -10515,7 +10520,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>210</v>
@@ -10534,7 +10539,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>209</v>
@@ -10553,7 +10558,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>44256</v>
@@ -10574,7 +10579,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A324" si="18">EDATE(A315,1)</f>
         <v>44287</v>
@@ -10601,7 +10606,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" si="18"/>
         <v>44317</v>
@@ -10622,7 +10627,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="18"/>
         <v>44348</v>
@@ -10643,7 +10648,7 @@
       <c r="J318" s="12"/>
       <c r="K318" s="15"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="18"/>
         <v>44378</v>
@@ -10670,7 +10675,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="18"/>
         <v>44409</v>
@@ -10691,7 +10696,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f t="shared" si="18"/>
         <v>44440</v>
@@ -10712,7 +10717,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" si="18"/>
         <v>44470</v>
@@ -10733,7 +10738,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="18"/>
         <v>44501</v>
@@ -10760,7 +10765,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f t="shared" si="18"/>
         <v>44531</v>
@@ -10781,7 +10786,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="48" t="s">
         <v>217</v>
       </c>
@@ -10801,7 +10806,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>44562</v>
       </c>
@@ -10821,7 +10826,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f>EDATE(A326,1)</f>
         <v>44593</v>
@@ -10842,7 +10847,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" ref="A328" si="19">EDATE(A327,1)</f>
         <v>44621</v>
@@ -10869,7 +10874,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>49</v>
@@ -10891,7 +10896,7 @@
         <v>44634</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -10913,7 +10918,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>254</v>
@@ -10933,7 +10938,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="52"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f>EDATE(A328,1)</f>
         <v>44652</v>
@@ -10958,7 +10963,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>49</v>
@@ -10977,7 +10982,7 @@
         <v>44657</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>65</v>
@@ -10994,7 +10999,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>251</v>
@@ -11016,7 +11021,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>253</v>
@@ -11036,7 +11041,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="52"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A332,1)</f>
         <v>44682</v>
@@ -11063,7 +11068,7 @@
         <v>44687</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>252</v>
@@ -11083,7 +11088,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="52"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f>EDATE(A337,1)</f>
         <v>44713</v>
@@ -11110,7 +11115,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>250</v>
@@ -11130,7 +11135,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>44743</v>
@@ -11157,7 +11162,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>65</v>
@@ -11174,7 +11179,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>248</v>
@@ -11194,7 +11199,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>44774</v>
       </c>
@@ -11218,7 +11223,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="41">
         <v>44805</v>
       </c>
@@ -11244,7 +11249,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>246</v>
@@ -11264,7 +11269,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>44835</v>
       </c>
@@ -11290,7 +11295,7 @@
         <v>44846</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>223</v>
@@ -11310,7 +11315,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="52"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>230</v>
@@ -11332,7 +11337,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>224</v>
@@ -11354,7 +11359,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>243</v>
@@ -11376,7 +11381,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>245</v>
@@ -11396,7 +11401,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="53"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>44866</v>
       </c>
@@ -11422,7 +11427,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>242</v>
@@ -11442,7 +11447,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="52"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44896</v>
       </c>
@@ -11468,7 +11473,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>223</v>
@@ -11490,7 +11495,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>221</v>
@@ -11512,7 +11517,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>241</v>
@@ -11532,7 +11537,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="52"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="48" t="s">
         <v>220</v>
       </c>
@@ -11550,7 +11555,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44927</v>
       </c>
@@ -11576,7 +11581,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44958</v>
       </c>
@@ -11602,7 +11607,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="41">
         <v>44986</v>
       </c>
@@ -11626,7 +11631,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>45017</v>
       </c>
@@ -11652,7 +11657,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>45047</v>
       </c>
@@ -11676,7 +11681,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>223</v>
@@ -11698,7 +11703,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>45078</v>
       </c>
@@ -11724,7 +11729,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>221</v>
@@ -11746,7 +11751,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>45108</v>
       </c>
@@ -11769,7 +11774,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>223</v>
@@ -11791,7 +11796,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>45139</v>
       </c>
@@ -11817,7 +11822,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>45170</v>
       </c>
@@ -11843,7 +11848,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>45200</v>
       </c>
@@ -11869,7 +11874,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>221</v>
@@ -11891,7 +11896,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>45231</v>
       </c>
@@ -11917,47 +11922,48 @@
         <v>256</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>45261</v>
       </c>
       <c r="B375" s="20"/>
-      <c r="C375" s="13"/>
+      <c r="C375" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D375" s="39"/>
       <c r="E375" s="9"/>
       <c r="F375" s="20"/>
-      <c r="G375" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G375" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H375" s="39"/>
       <c r="I375" s="9"/>
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A376" s="40">
-        <v>45292</v>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" s="48" t="s">
+        <v>257</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
       <c r="D376" s="39"/>
       <c r="E376" s="9"/>
       <c r="F376" s="20"/>
-      <c r="G376" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G376" s="13"/>
       <c r="H376" s="39"/>
       <c r="I376" s="9"/>
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B377" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B377" s="20" t="s">
+        <v>221</v>
+      </c>
       <c r="C377" s="13"/>
       <c r="D377" s="39"/>
       <c r="E377" s="9"/>
@@ -11966,14 +11972,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H377" s="39"/>
+      <c r="H377" s="39">
+        <v>2</v>
+      </c>
       <c r="I377" s="9"/>
       <c r="J377" s="11"/>
-      <c r="K377" s="20"/>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K377" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -11989,8 +11999,10 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A379" s="40"/>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" s="40">
+        <v>45352</v>
+      </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
       <c r="D379" s="39"/>
@@ -12005,21 +12017,37 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A380" s="41"/>
-      <c r="B380" s="15"/>
-      <c r="C380" s="42"/>
-      <c r="D380" s="43"/>
-      <c r="E380" s="51"/>
-      <c r="F380" s="15"/>
-      <c r="G380" s="42" t="str">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A380" s="40"/>
+      <c r="B380" s="20"/>
+      <c r="C380" s="13"/>
+      <c r="D380" s="39"/>
+      <c r="E380" s="9"/>
+      <c r="F380" s="20"/>
+      <c r="G380" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H380" s="43"/>
-      <c r="I380" s="51"/>
-      <c r="J380" s="12"/>
-      <c r="K380" s="15"/>
+      <c r="H380" s="39"/>
+      <c r="I380" s="9"/>
+      <c r="J380" s="11"/>
+      <c r="K380" s="20"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A381" s="41"/>
+      <c r="B381" s="15"/>
+      <c r="C381" s="42"/>
+      <c r="D381" s="43"/>
+      <c r="E381" s="51"/>
+      <c r="F381" s="15"/>
+      <c r="G381" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H381" s="43"/>
+      <c r="I381" s="51"/>
+      <c r="J381" s="12"/>
+      <c r="K381" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12036,10 +12064,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12062,7 +12090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12070,21 +12098,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -12097,7 +12125,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12126,7 +12154,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -12152,17 +12180,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12183,7 +12211,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12210,7 +12238,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12236,7 +12264,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12262,7 +12290,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12288,7 +12316,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12314,7 +12342,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12340,7 +12368,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12366,7 +12394,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12392,7 +12420,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12412,7 +12440,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12432,7 +12460,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12452,7 +12480,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12473,7 +12501,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12494,7 +12522,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12515,7 +12543,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12536,7 +12564,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12557,7 +12585,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12578,7 +12606,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12599,7 +12627,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12620,7 +12648,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12641,7 +12669,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12662,7 +12690,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12683,7 +12711,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12704,7 +12732,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12725,7 +12753,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12746,7 +12774,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12767,7 +12795,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12788,7 +12816,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12809,7 +12837,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12830,7 +12858,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12851,7 +12879,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12872,7 +12900,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12881,7 +12909,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12890,7 +12918,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12899,7 +12927,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12908,7 +12936,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12917,7 +12945,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12926,7 +12954,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12935,7 +12963,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12944,7 +12972,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12953,7 +12981,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12962,7 +12990,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12971,7 +12999,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12980,7 +13008,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12989,7 +13017,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12998,7 +13026,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13007,7 +13035,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13016,7 +13044,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13025,7 +13053,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13034,7 +13062,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13043,7 +13071,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13052,7 +13080,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13061,7 +13089,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13070,7 +13098,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13079,7 +13107,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13088,7 +13116,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13097,7 +13125,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13106,7 +13134,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13115,7 +13143,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13124,7 +13152,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13133,7 +13161,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MAYORS OFFICE/MONTENEGRO, HELEN.xlsx
+++ b/REGULAR/MAYORS OFFICE/MONTENEGRO, HELEN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="259">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1698,7 +1698,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,7 +1741,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1805,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1865,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1931,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,7 +1994,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2092,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2151,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2216,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2259,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2334,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2520,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2586,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2644,7 +2644,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2710,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2766,7 +2766,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2841,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,7 +2884,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2950,7 +2950,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3006,7 +3006,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,7 +3104,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3167,7 +3167,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3233,7 +3233,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K381" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K382" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3611,12 +3611,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K381"/>
+  <dimension ref="A2:K382"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A361" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="E370" sqref="E370"/>
+      <selection pane="bottomLeft" activeCell="I374" sqref="I374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3791,7 +3791,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36.25</v>
+        <v>35.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11982,26 +11982,27 @@
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A378" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B378" s="20"/>
+      <c r="A378" s="40"/>
+      <c r="B378" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="C378" s="13"/>
       <c r="D378" s="39"/>
       <c r="E378" s="9"/>
       <c r="F378" s="20"/>
-      <c r="G378" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H378" s="39"/>
+      <c r="G378" s="13"/>
+      <c r="H378" s="39">
+        <v>1</v>
+      </c>
       <c r="I378" s="9"/>
       <c r="J378" s="11"/>
-      <c r="K378" s="20"/>
+      <c r="K378" s="52">
+        <v>45300</v>
+      </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -12018,7 +12019,9 @@
       <c r="K379" s="20"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A380" s="40"/>
+      <c r="A380" s="40">
+        <v>45352</v>
+      </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
       <c r="D380" s="39"/>
@@ -12034,20 +12037,36 @@
       <c r="K380" s="20"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A381" s="41"/>
-      <c r="B381" s="15"/>
-      <c r="C381" s="42"/>
-      <c r="D381" s="43"/>
-      <c r="E381" s="51"/>
-      <c r="F381" s="15"/>
-      <c r="G381" s="42" t="str">
+      <c r="A381" s="40"/>
+      <c r="B381" s="20"/>
+      <c r="C381" s="13"/>
+      <c r="D381" s="39"/>
+      <c r="E381" s="9"/>
+      <c r="F381" s="20"/>
+      <c r="G381" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H381" s="43"/>
-      <c r="I381" s="51"/>
-      <c r="J381" s="12"/>
-      <c r="K381" s="15"/>
+      <c r="H381" s="39"/>
+      <c r="I381" s="9"/>
+      <c r="J381" s="11"/>
+      <c r="K381" s="20"/>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" s="41"/>
+      <c r="B382" s="15"/>
+      <c r="C382" s="42"/>
+      <c r="D382" s="43"/>
+      <c r="E382" s="51"/>
+      <c r="F382" s="15"/>
+      <c r="G382" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H382" s="43"/>
+      <c r="I382" s="51"/>
+      <c r="J382" s="12"/>
+      <c r="K382" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/MAYORS OFFICE/MONTENEGRO, HELEN.xlsx
+++ b/REGULAR/MAYORS OFFICE/MONTENEGRO, HELEN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B54AD5-B8F5-42F4-978E-9EA499EF596F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="259">
   <si>
     <t>PERIOD</t>
   </si>
@@ -816,7 +817,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1698,7 +1699,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,7 +1742,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1806,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1866,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1932,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,7 +1995,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2093,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2152,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2217,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2260,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2335,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2521,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2587,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2644,7 +2645,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2711,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2766,7 +2767,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2842,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,7 +2885,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2950,7 +2951,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3006,7 +3007,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,7 +3105,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3167,7 +3168,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3216,7 +3217,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3233,25 +3234,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K382" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K383" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3263,13 +3264,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3278,14 +3279,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3589,7 +3590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3599,7 +3600,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3607,34 +3608,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K382"/>
+  <dimension ref="A2:K383"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A361" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A370" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="I374" sqref="I374"/>
+      <selection pane="bottomLeft" activeCell="K380" sqref="K380"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3657,7 +3658,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3677,7 +3678,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3699,7 +3700,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3707,7 +3708,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3720,7 +3721,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -3737,7 +3738,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3781,7 +3782,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>121.84099999999995</v>
+        <v>123.09099999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3791,12 +3792,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>35.25</v>
+        <v>36.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3818,7 +3819,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>37655</v>
       </c>
@@ -3838,7 +3839,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>37681</v>
       </c>
@@ -3858,7 +3859,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>37712</v>
@@ -3879,7 +3880,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A21" si="0">EDATE(A13,1)</f>
         <v>37742</v>
@@ -3900,7 +3901,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -3921,7 +3922,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -3942,7 +3943,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -3963,7 +3964,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -3984,7 +3985,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>37895</v>
@@ -4005,7 +4006,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>37926</v>
@@ -4026,7 +4027,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>37956</v>
@@ -4053,7 +4054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>46</v>
       </c>
@@ -4071,7 +4072,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>37987</v>
       </c>
@@ -4091,7 +4092,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f>EDATE(A23,1)</f>
         <v>38018</v>
@@ -4116,7 +4117,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" ref="A25:A36" si="1">EDATE(A24,1)</f>
         <v>38047</v>
@@ -4143,7 +4144,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -4164,7 +4165,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -4185,7 +4186,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -4206,7 +4207,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -4233,7 +4234,7 @@
         <v>11140</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -4258,7 +4259,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -4287,7 +4288,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>54</v>
@@ -4307,7 +4308,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>38261</v>
@@ -4334,7 +4335,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>51</v>
@@ -4356,7 +4357,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>38292</v>
@@ -4383,7 +4384,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -4410,7 +4411,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>58</v>
       </c>
@@ -4428,7 +4429,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>38353</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f>EDATE(A38,1)</f>
         <v>38384</v>
@@ -4475,7 +4476,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" ref="A40:A51" si="2">EDATE(A39,1)</f>
         <v>38412</v>
@@ -4502,7 +4503,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>38443</v>
@@ -4529,7 +4530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>65</v>
@@ -4549,7 +4550,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>66</v>
@@ -4571,7 +4572,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f>EDATE(A41,1)</f>
         <v>38473</v>
@@ -4598,7 +4599,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -4625,7 +4626,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -4646,7 +4647,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -4667,7 +4668,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>38596</v>
@@ -4694,7 +4695,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>61</v>
@@ -4716,7 +4717,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>38626</v>
@@ -4743,7 +4744,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -4764,7 +4765,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>38687</v>
@@ -4785,7 +4786,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="48" t="s">
         <v>74</v>
       </c>
@@ -4803,7 +4804,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>38718</v>
       </c>
@@ -4823,7 +4824,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f>EDATE(A54,1)</f>
         <v>38749</v>
@@ -4844,7 +4845,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>38777</v>
@@ -4871,7 +4872,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" ref="A57:A65" si="3">EDATE(A56,1)</f>
         <v>38808</v>
@@ -4898,7 +4899,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>38838</v>
@@ -4919,7 +4920,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>38869</v>
@@ -4946,7 +4947,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>38899</v>
@@ -4967,7 +4968,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>38930</v>
@@ -4994,7 +4995,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>80</v>
@@ -5014,7 +5015,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>38961</v>
@@ -5039,7 +5040,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A63,1)</f>
         <v>38991</v>
@@ -5064,7 +5065,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>39022</v>
@@ -5089,7 +5090,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>49</v>
@@ -5108,7 +5109,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>83</v>
@@ -5125,7 +5126,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f>EDATE(A65,1)</f>
         <v>39052</v>
@@ -5150,7 +5151,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
         <v>86</v>
       </c>
@@ -5168,7 +5169,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>39083</v>
       </c>
@@ -5196,7 +5197,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>89</v>
@@ -5215,7 +5216,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>39114</v>
@@ -5240,7 +5241,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f t="shared" ref="A73:A86" si="4">EDATE(A72,1)</f>
         <v>39142</v>
@@ -5269,7 +5270,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>95</v>
@@ -5288,7 +5289,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>96</v>
@@ -5305,7 +5306,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f>EDATE(A73,1)</f>
         <v>39173</v>
@@ -5330,7 +5331,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>97</v>
@@ -5350,7 +5351,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A76,1)</f>
         <v>39203</v>
@@ -5377,7 +5378,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>39234</v>
@@ -5398,7 +5399,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>39264</v>
@@ -5425,7 +5426,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>39295</v>
@@ -5452,7 +5453,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>61</v>
@@ -5471,7 +5472,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>39326</v>
@@ -5498,7 +5499,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>39356</v>
@@ -5519,7 +5520,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A84,1)</f>
         <v>39387</v>
@@ -5540,7 +5541,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>39417</v>
@@ -5567,7 +5568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>99</v>
@@ -5589,7 +5590,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="48" t="s">
         <v>102</v>
       </c>
@@ -5607,7 +5608,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>39448</v>
       </c>
@@ -5627,7 +5628,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f>EDATE(A89,1)</f>
         <v>39479</v>
@@ -5652,7 +5653,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f t="shared" ref="A91:A100" si="5">EDATE(A90,1)</f>
         <v>39508</v>
@@ -5673,7 +5674,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>39539</v>
@@ -5694,7 +5695,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f t="shared" si="5"/>
         <v>39569</v>
@@ -5715,7 +5716,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f t="shared" si="5"/>
         <v>39600</v>
@@ -5736,7 +5737,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="5"/>
         <v>39630</v>
@@ -5757,7 +5758,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>39661</v>
@@ -5778,7 +5779,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>39692</v>
@@ -5799,7 +5800,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>39722</v>
@@ -5820,7 +5821,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>39753</v>
@@ -5841,7 +5842,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>39783</v>
@@ -5866,7 +5867,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>76</v>
@@ -5886,7 +5887,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="48" t="s">
         <v>105</v>
       </c>
@@ -5904,7 +5905,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>39814</v>
       </c>
@@ -5924,7 +5925,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f>EDATE(A103,1)</f>
         <v>39845</v>
@@ -5945,7 +5946,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f t="shared" ref="A105:A113" si="6">EDATE(A104,1)</f>
         <v>39873</v>
@@ -5966,7 +5967,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" si="6"/>
         <v>39904</v>
@@ -5987,7 +5988,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>39934</v>
@@ -6008,7 +6009,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -6029,7 +6030,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -6050,7 +6051,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>40026</v>
@@ -6071,7 +6072,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -6092,7 +6093,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>40087</v>
@@ -6113,7 +6114,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -6140,7 +6141,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>99</v>
@@ -6158,7 +6159,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>40148</v>
@@ -6179,7 +6180,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="48" t="s">
         <v>107</v>
       </c>
@@ -6197,7 +6198,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>40179</v>
       </c>
@@ -6217,7 +6218,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f>EDATE(A117,1)</f>
         <v>40210</v>
@@ -6238,7 +6239,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" ref="A119:A133" si="7">EDATE(A118,1)</f>
         <v>40238</v>
@@ -6259,7 +6260,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="7"/>
         <v>40269</v>
@@ -6284,7 +6285,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>65</v>
@@ -6304,7 +6305,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f>EDATE(A120,1)</f>
         <v>40299</v>
@@ -6331,7 +6332,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>110</v>
@@ -6346,7 +6347,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>111</v>
@@ -6361,7 +6362,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>112</v>
@@ -6376,7 +6377,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f>EDATE(A122,1)</f>
         <v>40330</v>
@@ -6401,7 +6402,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>114</v>
@@ -6421,7 +6422,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f>EDATE(A126,1)</f>
         <v>40360</v>
@@ -6446,7 +6447,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>40391</v>
@@ -6473,7 +6474,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>116</v>
@@ -6493,7 +6494,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>40422</v>
@@ -6518,7 +6519,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="7"/>
         <v>40452</v>
@@ -6539,7 +6540,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>40483</v>
@@ -6564,7 +6565,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f>EDATE(A133,1)</f>
         <v>40513</v>
@@ -6589,7 +6590,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="48" t="s">
         <v>120</v>
       </c>
@@ -6607,7 +6608,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>40544</v>
       </c>
@@ -6631,7 +6632,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>130</v>
@@ -6651,7 +6652,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f>EDATE(A136,1)</f>
         <v>40575</v>
@@ -6672,7 +6673,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A146" si="8">EDATE(A138,1)</f>
         <v>40603</v>
@@ -6693,7 +6694,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>40634</v>
@@ -6720,7 +6721,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>131</v>
@@ -6740,7 +6741,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>40664</v>
@@ -6765,7 +6766,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="8"/>
         <v>40695</v>
@@ -6790,7 +6791,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="8"/>
         <v>40725</v>
@@ -6815,7 +6816,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -6840,7 +6841,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -6867,7 +6868,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>135</v>
@@ -6887,7 +6888,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>40817</v>
@@ -6914,7 +6915,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>138</v>
@@ -6934,7 +6935,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f>EDATE(A148,1)</f>
         <v>40848</v>
@@ -6959,7 +6960,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f>EDATE(A150,1)</f>
         <v>40878</v>
@@ -6986,7 +6987,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>140</v>
@@ -7006,7 +7007,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="48" t="s">
         <v>121</v>
       </c>
@@ -7024,7 +7025,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>40909</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="41"/>
       <c r="B155" s="15" t="s">
         <v>142</v>
@@ -7068,7 +7069,7 @@
       <c r="J155" s="12"/>
       <c r="K155" s="15"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="41">
         <f>EDATE(A154,1)</f>
         <v>40940</v>
@@ -7093,7 +7094,7 @@
       <c r="J156" s="12"/>
       <c r="K156" s="15"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41">
         <f t="shared" ref="A157:A170" si="9">EDATE(A156,1)</f>
         <v>40969</v>
@@ -7116,7 +7117,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="41"/>
       <c r="B158" s="20" t="s">
         <v>65</v>
@@ -7131,7 +7132,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="41"/>
       <c r="B159" s="20" t="s">
         <v>65</v>
@@ -7146,7 +7147,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="41"/>
       <c r="B160" s="20" t="s">
         <v>144</v>
@@ -7163,7 +7164,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="41">
         <f>EDATE(A157,1)</f>
         <v>41000</v>
@@ -7186,7 +7187,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="41"/>
       <c r="B162" s="20" t="s">
         <v>145</v>
@@ -7206,7 +7207,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="41">
         <f>EDATE(A161,1)</f>
         <v>41030</v>
@@ -7231,7 +7232,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="41"/>
       <c r="B164" s="20" t="s">
         <v>49</v>
@@ -7248,7 +7249,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="41"/>
       <c r="B165" s="20" t="s">
         <v>146</v>
@@ -7265,7 +7266,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="41">
         <f>EDATE(A163,1)</f>
         <v>41061</v>
@@ -7290,7 +7291,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="41">
         <f t="shared" si="9"/>
         <v>41091</v>
@@ -7317,7 +7318,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="41"/>
       <c r="B168" s="20" t="s">
         <v>147</v>
@@ -7337,7 +7338,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="41">
         <f>EDATE(A167,1)</f>
         <v>41122</v>
@@ -7362,7 +7363,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="41">
         <f t="shared" si="9"/>
         <v>41153</v>
@@ -7385,7 +7386,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="41"/>
       <c r="B171" s="20" t="s">
         <v>149</v>
@@ -7405,7 +7406,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="41">
         <f>EDATE(A170,1)</f>
         <v>41183</v>
@@ -7432,7 +7433,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="41"/>
       <c r="B173" s="20" t="s">
         <v>152</v>
@@ -7452,7 +7453,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="41">
         <f>EDATE(A172,1)</f>
         <v>41214</v>
@@ -7473,7 +7474,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="41">
         <f>EDATE(A174,1)</f>
         <v>41244</v>
@@ -7498,7 +7499,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="41"/>
       <c r="B176" s="20" t="s">
         <v>153</v>
@@ -7518,7 +7519,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="48" t="s">
         <v>122</v>
       </c>
@@ -7536,7 +7537,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>41275</v>
       </c>
@@ -7560,7 +7561,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>154</v>
@@ -7577,7 +7578,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>41306</v>
@@ -7602,7 +7603,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" ref="A181:A197" si="10">EDATE(A180,1)</f>
         <v>41334</v>
@@ -7627,7 +7628,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>49</v>
@@ -7646,7 +7647,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>41365</v>
@@ -7671,7 +7672,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>150</v>
@@ -7688,7 +7689,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>156</v>
@@ -7705,7 +7706,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A183,1)</f>
         <v>41395</v>
@@ -7730,7 +7731,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="10"/>
         <v>41426</v>
@@ -7755,7 +7756,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f t="shared" si="10"/>
         <v>41456</v>
@@ -7780,7 +7781,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -7805,7 +7806,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -7832,7 +7833,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>49</v>
@@ -7851,7 +7852,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>49</v>
@@ -7870,7 +7871,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>164</v>
@@ -7889,7 +7890,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>165</v>
@@ -7906,7 +7907,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f>EDATE(A190,1)</f>
         <v>41548</v>
@@ -7927,7 +7928,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f>EDATE(A195,1)</f>
         <v>41579</v>
@@ -7952,7 +7953,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -7977,7 +7978,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="48" t="s">
         <v>123</v>
       </c>
@@ -7995,7 +7996,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="41">
         <v>41640</v>
       </c>
@@ -8015,7 +8016,7 @@
       <c r="J199" s="12"/>
       <c r="K199" s="15"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f>EDATE(A199,1)</f>
         <v>41671</v>
@@ -8040,7 +8041,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>65</v>
@@ -8060,7 +8061,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f>EDATE(A200,1)</f>
         <v>41699</v>
@@ -8087,7 +8088,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>65</v>
@@ -8102,7 +8103,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f>EDATE(A202,1)</f>
         <v>41730</v>
@@ -8123,7 +8124,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f t="shared" ref="A205:A211" si="11">EDATE(A204,1)</f>
         <v>41760</v>
@@ -8144,7 +8145,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f t="shared" si="11"/>
         <v>41791</v>
@@ -8171,7 +8172,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>66</v>
@@ -8193,7 +8194,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f>EDATE(A206,1)</f>
         <v>41821</v>
@@ -8214,7 +8215,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f t="shared" si="11"/>
         <v>41852</v>
@@ -8235,7 +8236,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f t="shared" si="11"/>
         <v>41883</v>
@@ -8260,7 +8261,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f t="shared" si="11"/>
         <v>41913</v>
@@ -8287,7 +8288,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>49</v>
@@ -8309,7 +8310,7 @@
         <v>47027</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f>EDATE(A211,1)</f>
         <v>41944</v>
@@ -8330,7 +8331,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f>EDATE(A213,1)</f>
         <v>41974</v>
@@ -8351,7 +8352,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="48" t="s">
         <v>124</v>
       </c>
@@ -8369,7 +8370,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>42005</v>
       </c>
@@ -8389,7 +8390,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f>EDATE(A216,1)</f>
         <v>42036</v>
@@ -8416,7 +8417,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f t="shared" ref="A218:A226" si="12">EDATE(A217,1)</f>
         <v>42064</v>
@@ -8441,7 +8442,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>65</v>
@@ -8461,7 +8462,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>42095</v>
@@ -8482,7 +8483,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="12"/>
         <v>42125</v>
@@ -8503,7 +8504,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f t="shared" si="12"/>
         <v>42156</v>
@@ -8524,7 +8525,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f t="shared" si="12"/>
         <v>42186</v>
@@ -8545,7 +8546,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="12"/>
         <v>42217</v>
@@ -8566,7 +8567,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f t="shared" si="12"/>
         <v>42248</v>
@@ -8587,7 +8588,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f t="shared" si="12"/>
         <v>42278</v>
@@ -8614,7 +8615,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>99</v>
@@ -8636,7 +8637,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>42309</v>
@@ -8663,7 +8664,7 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>76</v>
@@ -8685,7 +8686,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>42339</v>
@@ -8706,7 +8707,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="48" t="s">
         <v>125</v>
       </c>
@@ -8724,7 +8725,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>42370</v>
       </c>
@@ -8744,7 +8745,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f>EDATE(A232,1)</f>
         <v>42401</v>
@@ -8771,7 +8772,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f t="shared" ref="A234:A242" si="13">EDATE(A233,1)</f>
         <v>42430</v>
@@ -8798,7 +8799,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f t="shared" si="13"/>
         <v>42461</v>
@@ -8819,7 +8820,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="13"/>
         <v>42491</v>
@@ -8844,7 +8845,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f t="shared" si="13"/>
         <v>42522</v>
@@ -8865,7 +8866,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f t="shared" si="13"/>
         <v>42552</v>
@@ -8886,7 +8887,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f t="shared" si="13"/>
         <v>42583</v>
@@ -8907,7 +8908,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f t="shared" si="13"/>
         <v>42614</v>
@@ -8928,7 +8929,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f t="shared" si="13"/>
         <v>42644</v>
@@ -8955,7 +8956,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f t="shared" si="13"/>
         <v>42675</v>
@@ -8976,7 +8977,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f>EDATE(A242,1)</f>
         <v>42705</v>
@@ -8997,7 +8998,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="48" t="s">
         <v>126</v>
       </c>
@@ -9015,7 +9016,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>42736</v>
       </c>
@@ -9035,7 +9036,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f>EDATE(A245,1)</f>
         <v>42767</v>
@@ -9056,7 +9057,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" ref="A247:A261" si="14">EDATE(A246,1)</f>
         <v>42795</v>
@@ -9083,7 +9084,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>49</v>
@@ -9102,7 +9103,7 @@
         <v>11383</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>65</v>
@@ -9119,7 +9120,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f>EDATE(A247,1)</f>
         <v>42826</v>
@@ -9140,7 +9141,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f t="shared" si="14"/>
         <v>42856</v>
@@ -9165,7 +9166,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>49</v>
@@ -9187,7 +9188,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <f>EDATE(A251,1)</f>
         <v>42887</v>
@@ -9208,7 +9209,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f t="shared" si="14"/>
         <v>42917</v>
@@ -9229,7 +9230,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <f t="shared" si="14"/>
         <v>42948</v>
@@ -9256,7 +9257,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f t="shared" si="14"/>
         <v>42979</v>
@@ -9277,7 +9278,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f t="shared" si="14"/>
         <v>43009</v>
@@ -9304,7 +9305,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>76</v>
@@ -9323,7 +9324,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>49</v>
@@ -9342,7 +9343,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A257,1)</f>
         <v>43040</v>
@@ -9363,7 +9364,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f t="shared" si="14"/>
         <v>43070</v>
@@ -9384,7 +9385,7 @@
       <c r="J261" s="12"/>
       <c r="K261" s="15"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="48" t="s">
         <v>127</v>
       </c>
@@ -9402,7 +9403,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>43101</v>
       </c>
@@ -9428,7 +9429,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>43132</v>
@@ -9449,7 +9450,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f t="shared" ref="A265:A278" si="15">EDATE(A264,1)</f>
         <v>43160</v>
@@ -9470,7 +9471,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f t="shared" si="15"/>
         <v>43191</v>
@@ -9495,7 +9496,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f t="shared" si="15"/>
         <v>43221</v>
@@ -9520,7 +9521,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>99</v>
@@ -9539,7 +9540,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>49</v>
@@ -9558,7 +9559,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f>EDATE(A267,1)</f>
         <v>43252</v>
@@ -9579,7 +9580,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f t="shared" si="15"/>
         <v>43282</v>
@@ -9606,7 +9607,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f t="shared" si="15"/>
         <v>43313</v>
@@ -9627,7 +9628,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f t="shared" si="15"/>
         <v>43344</v>
@@ -9654,7 +9655,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>49</v>
@@ -9673,7 +9674,7 @@
         <v>46266</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>43374</v>
@@ -9700,7 +9701,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>99</v>
@@ -9722,7 +9723,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>43405</v>
@@ -9743,7 +9744,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f t="shared" si="15"/>
         <v>43435</v>
@@ -9770,7 +9771,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="48" t="s">
         <v>195</v>
       </c>
@@ -9788,7 +9789,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>43466</v>
       </c>
@@ -9814,7 +9815,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>43497</v>
@@ -9835,7 +9836,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f t="shared" ref="A282:A294" si="16">EDATE(A281,1)</f>
         <v>43525</v>
@@ -9856,7 +9857,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" si="16"/>
         <v>43556</v>
@@ -9881,7 +9882,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>65</v>
@@ -9901,7 +9902,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>49</v>
@@ -9920,7 +9921,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>49</v>
@@ -9939,7 +9940,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>49</v>
@@ -9958,7 +9959,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f>EDATE(A283,1)</f>
         <v>43586</v>
@@ -9979,7 +9980,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f t="shared" si="16"/>
         <v>43617</v>
@@ -10000,7 +10001,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f t="shared" si="16"/>
         <v>43647</v>
@@ -10021,7 +10022,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f t="shared" si="16"/>
         <v>43678</v>
@@ -10048,7 +10049,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f t="shared" si="16"/>
         <v>43709</v>
@@ -10075,7 +10076,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f t="shared" si="16"/>
         <v>43739</v>
@@ -10102,7 +10103,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f t="shared" si="16"/>
         <v>43770</v>
@@ -10123,7 +10124,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f>EDATE(A294,1)</f>
         <v>43800</v>
@@ -10150,7 +10151,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="48" t="s">
         <v>201</v>
       </c>
@@ -10168,7 +10169,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>43831</v>
       </c>
@@ -10188,7 +10189,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A297,1)</f>
         <v>43862</v>
@@ -10213,7 +10214,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f t="shared" ref="A299:A309" si="17">EDATE(A298,1)</f>
         <v>43891</v>
@@ -10238,7 +10239,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f t="shared" si="17"/>
         <v>43922</v>
@@ -10259,7 +10260,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <f t="shared" si="17"/>
         <v>43952</v>
@@ -10280,7 +10281,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f t="shared" si="17"/>
         <v>43983</v>
@@ -10301,7 +10302,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f t="shared" si="17"/>
         <v>44013</v>
@@ -10322,7 +10323,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f t="shared" si="17"/>
         <v>44044</v>
@@ -10343,7 +10344,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f t="shared" si="17"/>
         <v>44075</v>
@@ -10370,7 +10371,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>206</v>
@@ -10392,7 +10393,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f>EDATE(A305,1)</f>
         <v>44105</v>
@@ -10413,7 +10414,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <f t="shared" si="17"/>
         <v>44136</v>
@@ -10434,7 +10435,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f t="shared" si="17"/>
         <v>44166</v>
@@ -10455,7 +10456,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="48" t="s">
         <v>208</v>
       </c>
@@ -10473,7 +10474,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>44197</v>
       </c>
@@ -10493,7 +10494,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f>EDATE(A311,1)</f>
         <v>44228</v>
@@ -10520,7 +10521,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>210</v>
@@ -10539,7 +10540,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>209</v>
@@ -10558,7 +10559,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>44256</v>
@@ -10579,7 +10580,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A324" si="18">EDATE(A315,1)</f>
         <v>44287</v>
@@ -10606,7 +10607,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f t="shared" si="18"/>
         <v>44317</v>
@@ -10627,7 +10628,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f t="shared" si="18"/>
         <v>44348</v>
@@ -10648,7 +10649,7 @@
       <c r="J318" s="12"/>
       <c r="K318" s="15"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f t="shared" si="18"/>
         <v>44378</v>
@@ -10675,7 +10676,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f t="shared" si="18"/>
         <v>44409</v>
@@ -10696,7 +10697,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f t="shared" si="18"/>
         <v>44440</v>
@@ -10717,7 +10718,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f t="shared" si="18"/>
         <v>44470</v>
@@ -10738,7 +10739,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <f t="shared" si="18"/>
         <v>44501</v>
@@ -10765,7 +10766,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f t="shared" si="18"/>
         <v>44531</v>
@@ -10786,7 +10787,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="48" t="s">
         <v>217</v>
       </c>
@@ -10806,7 +10807,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>44562</v>
       </c>
@@ -10826,7 +10827,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <f>EDATE(A326,1)</f>
         <v>44593</v>
@@ -10847,7 +10848,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f t="shared" ref="A328" si="19">EDATE(A327,1)</f>
         <v>44621</v>
@@ -10874,7 +10875,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>49</v>
@@ -10896,7 +10897,7 @@
         <v>44634</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -10918,7 +10919,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>254</v>
@@ -10938,7 +10939,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="52"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f>EDATE(A328,1)</f>
         <v>44652</v>
@@ -10963,7 +10964,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>49</v>
@@ -10982,7 +10983,7 @@
         <v>44657</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>65</v>
@@ -10999,7 +11000,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>251</v>
@@ -11021,7 +11022,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>253</v>
@@ -11041,7 +11042,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="52"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f>EDATE(A332,1)</f>
         <v>44682</v>
@@ -11068,7 +11069,7 @@
         <v>44687</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>252</v>
@@ -11088,7 +11089,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="52"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f>EDATE(A337,1)</f>
         <v>44713</v>
@@ -11115,7 +11116,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>250</v>
@@ -11135,7 +11136,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>44743</v>
@@ -11162,7 +11163,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>65</v>
@@ -11179,7 +11180,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>248</v>
@@ -11199,7 +11200,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>44774</v>
       </c>
@@ -11223,7 +11224,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="41">
         <v>44805</v>
       </c>
@@ -11249,7 +11250,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>246</v>
@@ -11269,7 +11270,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>44835</v>
       </c>
@@ -11295,7 +11296,7 @@
         <v>44846</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>223</v>
@@ -11315,7 +11316,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="52"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>230</v>
@@ -11337,7 +11338,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>224</v>
@@ -11359,7 +11360,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>243</v>
@@ -11381,7 +11382,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>245</v>
@@ -11401,7 +11402,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="53"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>44866</v>
       </c>
@@ -11427,7 +11428,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>242</v>
@@ -11447,7 +11448,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="52"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>44896</v>
       </c>
@@ -11473,7 +11474,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>223</v>
@@ -11495,7 +11496,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>221</v>
@@ -11517,7 +11518,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>241</v>
@@ -11537,7 +11538,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="52"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="48" t="s">
         <v>220</v>
       </c>
@@ -11555,7 +11556,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>44927</v>
       </c>
@@ -11581,7 +11582,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>44958</v>
       </c>
@@ -11607,7 +11608,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="41">
         <v>44986</v>
       </c>
@@ -11631,7 +11632,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>45017</v>
       </c>
@@ -11657,7 +11658,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>45047</v>
       </c>
@@ -11681,7 +11682,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>223</v>
@@ -11703,7 +11704,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>45078</v>
       </c>
@@ -11729,7 +11730,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>221</v>
@@ -11751,7 +11752,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>45108</v>
       </c>
@@ -11774,7 +11775,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>223</v>
@@ -11796,7 +11797,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>45139</v>
       </c>
@@ -11822,7 +11823,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>45170</v>
       </c>
@@ -11848,7 +11849,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>45200</v>
       </c>
@@ -11874,7 +11875,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>221</v>
@@ -11896,7 +11897,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>45231</v>
       </c>
@@ -11922,7 +11923,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>45261</v>
       </c>
@@ -11942,7 +11943,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="48" t="s">
         <v>257</v>
       </c>
@@ -11957,20 +11958,22 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>45292</v>
       </c>
       <c r="B377" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C377" s="13"/>
+      <c r="C377" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D377" s="39"/>
       <c r="E377" s="9"/>
       <c r="F377" s="20"/>
-      <c r="G377" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G377" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H377" s="39">
         <v>2</v>
@@ -11981,7 +11984,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>223</v>
@@ -12000,11 +12003,11 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A379" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B379" s="20"/>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A379" s="40"/>
+      <c r="B379" s="20" t="s">
+        <v>232</v>
+      </c>
       <c r="C379" s="13"/>
       <c r="D379" s="39"/>
       <c r="E379" s="9"/>
@@ -12016,11 +12019,13 @@
       <c r="H379" s="39"/>
       <c r="I379" s="9"/>
       <c r="J379" s="11"/>
-      <c r="K379" s="20"/>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K379" s="52">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -12036,8 +12041,10 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A381" s="40"/>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A381" s="40">
+        <v>45352</v>
+      </c>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
       <c r="D381" s="39"/>
@@ -12052,21 +12059,37 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A382" s="41"/>
-      <c r="B382" s="15"/>
-      <c r="C382" s="42"/>
-      <c r="D382" s="43"/>
-      <c r="E382" s="51"/>
-      <c r="F382" s="15"/>
-      <c r="G382" s="42" t="str">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A382" s="40"/>
+      <c r="B382" s="20"/>
+      <c r="C382" s="13"/>
+      <c r="D382" s="39"/>
+      <c r="E382" s="9"/>
+      <c r="F382" s="20"/>
+      <c r="G382" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H382" s="43"/>
-      <c r="I382" s="51"/>
-      <c r="J382" s="12"/>
-      <c r="K382" s="15"/>
+      <c r="H382" s="39"/>
+      <c r="I382" s="9"/>
+      <c r="J382" s="11"/>
+      <c r="K382" s="20"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A383" s="41"/>
+      <c r="B383" s="15"/>
+      <c r="C383" s="42"/>
+      <c r="D383" s="43"/>
+      <c r="E383" s="51"/>
+      <c r="F383" s="15"/>
+      <c r="G383" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H383" s="43"/>
+      <c r="I383" s="51"/>
+      <c r="J383" s="12"/>
+      <c r="K383" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12083,10 +12106,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12109,7 +12132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12117,21 +12140,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -12144,7 +12167,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12173,7 +12196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -12199,17 +12222,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12230,7 +12253,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12257,7 +12280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12283,7 +12306,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12309,7 +12332,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12335,7 +12358,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12361,7 +12384,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12387,7 +12410,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12413,7 +12436,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12439,7 +12462,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12459,7 +12482,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12479,7 +12502,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12499,7 +12522,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12520,7 +12543,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12541,7 +12564,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12562,7 +12585,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12583,7 +12606,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12604,7 +12627,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12625,7 +12648,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12646,7 +12669,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12667,7 +12690,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12688,7 +12711,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12709,7 +12732,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12730,7 +12753,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12751,7 +12774,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12772,7 +12795,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12793,7 +12816,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12814,7 +12837,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12835,7 +12858,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12856,7 +12879,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12877,7 +12900,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12898,7 +12921,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12919,7 +12942,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12928,7 +12951,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12937,7 +12960,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12946,7 +12969,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12955,7 +12978,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12964,7 +12987,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12973,7 +12996,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12982,7 +13005,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12991,7 +13014,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13000,7 +13023,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13009,7 +13032,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13018,7 +13041,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13027,7 +13050,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13036,7 +13059,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13045,7 +13068,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13054,7 +13077,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13063,7 +13086,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13072,7 +13095,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13081,7 +13104,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13090,7 +13113,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13099,7 +13122,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13108,7 +13131,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13117,7 +13140,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13126,7 +13149,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13135,7 +13158,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13144,7 +13167,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13153,7 +13176,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13162,7 +13185,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13171,7 +13194,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13180,7 +13203,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MAYORS OFFICE/MONTENEGRO, HELEN.xlsx
+++ b/REGULAR/MAYORS OFFICE/MONTENEGRO, HELEN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B54AD5-B8F5-42F4-978E-9EA499EF596F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="259">
   <si>
     <t>PERIOD</t>
   </si>
@@ -817,7 +816,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1699,7 +1698,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1741,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,7 +1805,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1866,7 +1865,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,7 +1931,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +1994,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2092,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2151,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2216,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2259,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2335,7 +2334,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2521,7 +2520,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2586,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2644,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2711,7 +2710,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2767,7 +2766,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2842,7 +2841,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2885,7 +2884,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2951,7 +2950,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3006,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3105,7 +3104,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3168,7 +3167,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3217,7 +3216,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3234,25 +3233,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K383" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K390" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3264,13 +3263,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3279,14 +3278,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3590,7 +3589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3600,7 +3599,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3608,34 +3607,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K383"/>
+  <dimension ref="A2:K390"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A370" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A370" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="K380" sqref="K380"/>
+      <selection pane="bottomLeft" activeCell="D375" sqref="D375"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3658,7 +3657,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3678,7 +3677,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3700,7 +3699,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3708,7 +3707,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3721,7 +3720,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -3738,7 +3737,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3792,12 +3791,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36.5</v>
+        <v>35.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3819,7 +3818,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>37655</v>
       </c>
@@ -3839,7 +3838,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>37681</v>
       </c>
@@ -3859,7 +3858,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>37712</v>
@@ -3880,7 +3879,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A21" si="0">EDATE(A13,1)</f>
         <v>37742</v>
@@ -3901,7 +3900,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -3922,7 +3921,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -3943,7 +3942,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -3964,7 +3963,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -3985,7 +3984,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>37895</v>
@@ -4006,7 +4005,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>37926</v>
@@ -4027,7 +4026,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>37956</v>
@@ -4054,7 +4053,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>46</v>
       </c>
@@ -4072,7 +4071,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>37987</v>
       </c>
@@ -4092,7 +4091,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f>EDATE(A23,1)</f>
         <v>38018</v>
@@ -4117,7 +4116,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" ref="A25:A36" si="1">EDATE(A24,1)</f>
         <v>38047</v>
@@ -4144,7 +4143,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -4165,7 +4164,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -4186,7 +4185,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -4207,7 +4206,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -4234,7 +4233,7 @@
         <v>11140</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -4259,7 +4258,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -4288,7 +4287,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>54</v>
@@ -4308,7 +4307,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>38261</v>
@@ -4335,7 +4334,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>51</v>
@@ -4357,7 +4356,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>38292</v>
@@ -4384,7 +4383,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -4411,7 +4410,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>58</v>
       </c>
@@ -4429,7 +4428,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>38353</v>
       </c>
@@ -4455,7 +4454,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f>EDATE(A38,1)</f>
         <v>38384</v>
@@ -4476,7 +4475,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" ref="A40:A51" si="2">EDATE(A39,1)</f>
         <v>38412</v>
@@ -4503,7 +4502,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>38443</v>
@@ -4530,7 +4529,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>65</v>
@@ -4550,7 +4549,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>66</v>
@@ -4572,7 +4571,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A41,1)</f>
         <v>38473</v>
@@ -4599,7 +4598,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -4626,7 +4625,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -4647,7 +4646,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -4668,7 +4667,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>38596</v>
@@ -4695,7 +4694,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>61</v>
@@ -4717,7 +4716,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>38626</v>
@@ -4744,7 +4743,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -4765,7 +4764,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>38687</v>
@@ -4786,7 +4785,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>74</v>
       </c>
@@ -4804,7 +4803,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>38718</v>
       </c>
@@ -4824,7 +4823,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f>EDATE(A54,1)</f>
         <v>38749</v>
@@ -4845,7 +4844,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>38777</v>
@@ -4872,7 +4871,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" ref="A57:A65" si="3">EDATE(A56,1)</f>
         <v>38808</v>
@@ -4899,7 +4898,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>38838</v>
@@ -4920,7 +4919,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>38869</v>
@@ -4947,7 +4946,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>38899</v>
@@ -4968,7 +4967,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>38930</v>
@@ -4995,7 +4994,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>80</v>
@@ -5015,7 +5014,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>38961</v>
@@ -5040,7 +5039,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A63,1)</f>
         <v>38991</v>
@@ -5065,7 +5064,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>39022</v>
@@ -5090,7 +5089,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>49</v>
@@ -5109,7 +5108,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>83</v>
@@ -5126,7 +5125,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f>EDATE(A65,1)</f>
         <v>39052</v>
@@ -5151,7 +5150,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>86</v>
       </c>
@@ -5169,7 +5168,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>39083</v>
       </c>
@@ -5197,7 +5196,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>89</v>
@@ -5216,7 +5215,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>39114</v>
@@ -5241,7 +5240,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" ref="A73:A86" si="4">EDATE(A72,1)</f>
         <v>39142</v>
@@ -5270,7 +5269,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>95</v>
@@ -5289,7 +5288,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>96</v>
@@ -5306,7 +5305,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A73,1)</f>
         <v>39173</v>
@@ -5331,7 +5330,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>97</v>
@@ -5351,7 +5350,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A76,1)</f>
         <v>39203</v>
@@ -5378,7 +5377,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>39234</v>
@@ -5399,7 +5398,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>39264</v>
@@ -5426,7 +5425,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>39295</v>
@@ -5453,7 +5452,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>61</v>
@@ -5472,7 +5471,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>39326</v>
@@ -5499,7 +5498,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>39356</v>
@@ -5520,7 +5519,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A84,1)</f>
         <v>39387</v>
@@ -5541,7 +5540,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>39417</v>
@@ -5568,7 +5567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>99</v>
@@ -5590,7 +5589,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>102</v>
       </c>
@@ -5608,7 +5607,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>39448</v>
       </c>
@@ -5628,7 +5627,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f>EDATE(A89,1)</f>
         <v>39479</v>
@@ -5653,7 +5652,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" ref="A91:A100" si="5">EDATE(A90,1)</f>
         <v>39508</v>
@@ -5674,7 +5673,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>39539</v>
@@ -5695,7 +5694,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="5"/>
         <v>39569</v>
@@ -5716,7 +5715,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="5"/>
         <v>39600</v>
@@ -5737,7 +5736,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="5"/>
         <v>39630</v>
@@ -5758,7 +5757,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>39661</v>
@@ -5779,7 +5778,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>39692</v>
@@ -5800,7 +5799,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>39722</v>
@@ -5821,7 +5820,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>39753</v>
@@ -5842,7 +5841,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>39783</v>
@@ -5867,7 +5866,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>76</v>
@@ -5887,7 +5886,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>105</v>
       </c>
@@ -5905,7 +5904,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>39814</v>
       </c>
@@ -5925,7 +5924,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f>EDATE(A103,1)</f>
         <v>39845</v>
@@ -5946,7 +5945,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" ref="A105:A113" si="6">EDATE(A104,1)</f>
         <v>39873</v>
@@ -5967,7 +5966,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="6"/>
         <v>39904</v>
@@ -5988,7 +5987,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>39934</v>
@@ -6009,7 +6008,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -6030,7 +6029,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -6051,7 +6050,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>40026</v>
@@ -6072,7 +6071,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -6093,7 +6092,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>40087</v>
@@ -6114,7 +6113,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -6141,7 +6140,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>99</v>
@@ -6159,7 +6158,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>40148</v>
@@ -6180,7 +6179,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>107</v>
       </c>
@@ -6198,7 +6197,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>40179</v>
       </c>
@@ -6218,7 +6217,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f>EDATE(A117,1)</f>
         <v>40210</v>
@@ -6239,7 +6238,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" ref="A119:A133" si="7">EDATE(A118,1)</f>
         <v>40238</v>
@@ -6260,7 +6259,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="7"/>
         <v>40269</v>
@@ -6285,7 +6284,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>65</v>
@@ -6305,7 +6304,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f>EDATE(A120,1)</f>
         <v>40299</v>
@@ -6332,7 +6331,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>110</v>
@@ -6347,7 +6346,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>111</v>
@@ -6362,7 +6361,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>112</v>
@@ -6377,7 +6376,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A122,1)</f>
         <v>40330</v>
@@ -6402,7 +6401,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>114</v>
@@ -6422,7 +6421,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f>EDATE(A126,1)</f>
         <v>40360</v>
@@ -6447,7 +6446,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>40391</v>
@@ -6474,7 +6473,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>116</v>
@@ -6494,7 +6493,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>40422</v>
@@ -6519,7 +6518,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="7"/>
         <v>40452</v>
@@ -6540,7 +6539,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>40483</v>
@@ -6565,7 +6564,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f>EDATE(A133,1)</f>
         <v>40513</v>
@@ -6590,7 +6589,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>120</v>
       </c>
@@ -6608,7 +6607,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>40544</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>130</v>
@@ -6652,7 +6651,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f>EDATE(A136,1)</f>
         <v>40575</v>
@@ -6673,7 +6672,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A146" si="8">EDATE(A138,1)</f>
         <v>40603</v>
@@ -6694,7 +6693,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>40634</v>
@@ -6721,7 +6720,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>131</v>
@@ -6741,7 +6740,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>40664</v>
@@ -6766,7 +6765,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="8"/>
         <v>40695</v>
@@ -6791,7 +6790,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="8"/>
         <v>40725</v>
@@ -6816,7 +6815,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -6841,7 +6840,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -6868,7 +6867,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>135</v>
@@ -6888,7 +6887,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>40817</v>
@@ -6915,7 +6914,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>138</v>
@@ -6935,7 +6934,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f>EDATE(A148,1)</f>
         <v>40848</v>
@@ -6960,7 +6959,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A150,1)</f>
         <v>40878</v>
@@ -6987,7 +6986,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>140</v>
@@ -7007,7 +7006,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="48" t="s">
         <v>121</v>
       </c>
@@ -7025,7 +7024,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>40909</v>
       </c>
@@ -7049,7 +7048,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="41"/>
       <c r="B155" s="15" t="s">
         <v>142</v>
@@ -7069,7 +7068,7 @@
       <c r="J155" s="12"/>
       <c r="K155" s="15"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="41">
         <f>EDATE(A154,1)</f>
         <v>40940</v>
@@ -7094,7 +7093,7 @@
       <c r="J156" s="12"/>
       <c r="K156" s="15"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="41">
         <f t="shared" ref="A157:A170" si="9">EDATE(A156,1)</f>
         <v>40969</v>
@@ -7117,7 +7116,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="41"/>
       <c r="B158" s="20" t="s">
         <v>65</v>
@@ -7132,7 +7131,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="41"/>
       <c r="B159" s="20" t="s">
         <v>65</v>
@@ -7147,7 +7146,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="41"/>
       <c r="B160" s="20" t="s">
         <v>144</v>
@@ -7164,7 +7163,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="41">
         <f>EDATE(A157,1)</f>
         <v>41000</v>
@@ -7187,7 +7186,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="41"/>
       <c r="B162" s="20" t="s">
         <v>145</v>
@@ -7207,7 +7206,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="41">
         <f>EDATE(A161,1)</f>
         <v>41030</v>
@@ -7232,7 +7231,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="41"/>
       <c r="B164" s="20" t="s">
         <v>49</v>
@@ -7249,7 +7248,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="41"/>
       <c r="B165" s="20" t="s">
         <v>146</v>
@@ -7266,7 +7265,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="41">
         <f>EDATE(A163,1)</f>
         <v>41061</v>
@@ -7291,7 +7290,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="41">
         <f t="shared" si="9"/>
         <v>41091</v>
@@ -7318,7 +7317,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="41"/>
       <c r="B168" s="20" t="s">
         <v>147</v>
@@ -7338,7 +7337,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="41">
         <f>EDATE(A167,1)</f>
         <v>41122</v>
@@ -7363,7 +7362,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41">
         <f t="shared" si="9"/>
         <v>41153</v>
@@ -7386,7 +7385,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="41"/>
       <c r="B171" s="20" t="s">
         <v>149</v>
@@ -7406,7 +7405,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="41">
         <f>EDATE(A170,1)</f>
         <v>41183</v>
@@ -7433,7 +7432,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="41"/>
       <c r="B173" s="20" t="s">
         <v>152</v>
@@ -7453,7 +7452,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="41">
         <f>EDATE(A172,1)</f>
         <v>41214</v>
@@ -7474,7 +7473,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41">
         <f>EDATE(A174,1)</f>
         <v>41244</v>
@@ -7499,7 +7498,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="41"/>
       <c r="B176" s="20" t="s">
         <v>153</v>
@@ -7519,7 +7518,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="48" t="s">
         <v>122</v>
       </c>
@@ -7537,7 +7536,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>41275</v>
       </c>
@@ -7561,7 +7560,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>154</v>
@@ -7578,7 +7577,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>41306</v>
@@ -7603,7 +7602,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" ref="A181:A197" si="10">EDATE(A180,1)</f>
         <v>41334</v>
@@ -7628,7 +7627,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>49</v>
@@ -7647,7 +7646,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>41365</v>
@@ -7672,7 +7671,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>150</v>
@@ -7689,7 +7688,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>156</v>
@@ -7706,7 +7705,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A183,1)</f>
         <v>41395</v>
@@ -7731,7 +7730,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="10"/>
         <v>41426</v>
@@ -7756,7 +7755,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="10"/>
         <v>41456</v>
@@ -7781,7 +7780,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -7806,7 +7805,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -7833,7 +7832,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>49</v>
@@ -7852,7 +7851,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>49</v>
@@ -7871,7 +7870,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>164</v>
@@ -7890,7 +7889,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>165</v>
@@ -7907,7 +7906,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f>EDATE(A190,1)</f>
         <v>41548</v>
@@ -7928,7 +7927,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f>EDATE(A195,1)</f>
         <v>41579</v>
@@ -7953,7 +7952,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -7978,7 +7977,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="48" t="s">
         <v>123</v>
       </c>
@@ -7996,7 +7995,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41">
         <v>41640</v>
       </c>
@@ -8016,7 +8015,7 @@
       <c r="J199" s="12"/>
       <c r="K199" s="15"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f>EDATE(A199,1)</f>
         <v>41671</v>
@@ -8041,7 +8040,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>65</v>
@@ -8061,7 +8060,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f>EDATE(A200,1)</f>
         <v>41699</v>
@@ -8088,7 +8087,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>65</v>
@@ -8103,7 +8102,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f>EDATE(A202,1)</f>
         <v>41730</v>
@@ -8124,7 +8123,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f t="shared" ref="A205:A211" si="11">EDATE(A204,1)</f>
         <v>41760</v>
@@ -8145,7 +8144,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" si="11"/>
         <v>41791</v>
@@ -8172,7 +8171,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>66</v>
@@ -8194,7 +8193,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f>EDATE(A206,1)</f>
         <v>41821</v>
@@ -8215,7 +8214,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" si="11"/>
         <v>41852</v>
@@ -8236,7 +8235,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" si="11"/>
         <v>41883</v>
@@ -8261,7 +8260,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" si="11"/>
         <v>41913</v>
@@ -8288,7 +8287,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>49</v>
@@ -8310,7 +8309,7 @@
         <v>47027</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f>EDATE(A211,1)</f>
         <v>41944</v>
@@ -8331,7 +8330,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f>EDATE(A213,1)</f>
         <v>41974</v>
@@ -8352,7 +8351,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="48" t="s">
         <v>124</v>
       </c>
@@ -8370,7 +8369,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>42005</v>
       </c>
@@ -8390,7 +8389,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A216,1)</f>
         <v>42036</v>
@@ -8417,7 +8416,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f t="shared" ref="A218:A226" si="12">EDATE(A217,1)</f>
         <v>42064</v>
@@ -8442,7 +8441,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>65</v>
@@ -8462,7 +8461,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>42095</v>
@@ -8483,7 +8482,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="12"/>
         <v>42125</v>
@@ -8504,7 +8503,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="12"/>
         <v>42156</v>
@@ -8525,7 +8524,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="12"/>
         <v>42186</v>
@@ -8546,7 +8545,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="12"/>
         <v>42217</v>
@@ -8567,7 +8566,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f t="shared" si="12"/>
         <v>42248</v>
@@ -8588,7 +8587,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" si="12"/>
         <v>42278</v>
@@ -8615,7 +8614,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>99</v>
@@ -8637,7 +8636,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>42309</v>
@@ -8664,7 +8663,7 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>76</v>
@@ -8686,7 +8685,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>42339</v>
@@ -8707,7 +8706,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="48" t="s">
         <v>125</v>
       </c>
@@ -8725,7 +8724,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>42370</v>
       </c>
@@ -8745,7 +8744,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f>EDATE(A232,1)</f>
         <v>42401</v>
@@ -8772,7 +8771,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f t="shared" ref="A234:A242" si="13">EDATE(A233,1)</f>
         <v>42430</v>
@@ -8799,7 +8798,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f t="shared" si="13"/>
         <v>42461</v>
@@ -8820,7 +8819,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="13"/>
         <v>42491</v>
@@ -8845,7 +8844,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="13"/>
         <v>42522</v>
@@ -8866,7 +8865,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="13"/>
         <v>42552</v>
@@ -8887,7 +8886,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" si="13"/>
         <v>42583</v>
@@ -8908,7 +8907,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="13"/>
         <v>42614</v>
@@ -8929,7 +8928,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="13"/>
         <v>42644</v>
@@ -8956,7 +8955,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="13"/>
         <v>42675</v>
@@ -8977,7 +8976,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f>EDATE(A242,1)</f>
         <v>42705</v>
@@ -8998,7 +8997,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="48" t="s">
         <v>126</v>
       </c>
@@ -9016,7 +9015,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>42736</v>
       </c>
@@ -9036,7 +9035,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f>EDATE(A245,1)</f>
         <v>42767</v>
@@ -9057,7 +9056,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" ref="A247:A261" si="14">EDATE(A246,1)</f>
         <v>42795</v>
@@ -9084,7 +9083,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>49</v>
@@ -9103,7 +9102,7 @@
         <v>11383</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>65</v>
@@ -9120,7 +9119,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A247,1)</f>
         <v>42826</v>
@@ -9141,7 +9140,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" si="14"/>
         <v>42856</v>
@@ -9166,7 +9165,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>49</v>
@@ -9188,7 +9187,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f>EDATE(A251,1)</f>
         <v>42887</v>
@@ -9209,7 +9208,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="14"/>
         <v>42917</v>
@@ -9230,7 +9229,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" si="14"/>
         <v>42948</v>
@@ -9257,7 +9256,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" si="14"/>
         <v>42979</v>
@@ -9278,7 +9277,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f t="shared" si="14"/>
         <v>43009</v>
@@ -9305,7 +9304,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>76</v>
@@ -9324,7 +9323,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>49</v>
@@ -9343,7 +9342,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A257,1)</f>
         <v>43040</v>
@@ -9364,7 +9363,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="14"/>
         <v>43070</v>
@@ -9385,7 +9384,7 @@
       <c r="J261" s="12"/>
       <c r="K261" s="15"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="48" t="s">
         <v>127</v>
       </c>
@@ -9403,7 +9402,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>43101</v>
       </c>
@@ -9429,7 +9428,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>43132</v>
@@ -9450,7 +9449,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" ref="A265:A278" si="15">EDATE(A264,1)</f>
         <v>43160</v>
@@ -9471,7 +9470,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="15"/>
         <v>43191</v>
@@ -9496,7 +9495,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="15"/>
         <v>43221</v>
@@ -9521,7 +9520,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>99</v>
@@ -9540,7 +9539,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>49</v>
@@ -9559,7 +9558,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A267,1)</f>
         <v>43252</v>
@@ -9580,7 +9579,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="15"/>
         <v>43282</v>
@@ -9607,7 +9606,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" si="15"/>
         <v>43313</v>
@@ -9628,7 +9627,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" si="15"/>
         <v>43344</v>
@@ -9655,7 +9654,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>49</v>
@@ -9674,7 +9673,7 @@
         <v>46266</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>43374</v>
@@ -9701,7 +9700,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>99</v>
@@ -9723,7 +9722,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>43405</v>
@@ -9744,7 +9743,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="15"/>
         <v>43435</v>
@@ -9771,7 +9770,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="48" t="s">
         <v>195</v>
       </c>
@@ -9789,7 +9788,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>43466</v>
       </c>
@@ -9815,7 +9814,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>43497</v>
@@ -9836,7 +9835,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" ref="A282:A294" si="16">EDATE(A281,1)</f>
         <v>43525</v>
@@ -9857,7 +9856,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="16"/>
         <v>43556</v>
@@ -9882,7 +9881,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>65</v>
@@ -9902,7 +9901,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>49</v>
@@ -9921,7 +9920,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>49</v>
@@ -9940,7 +9939,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>49</v>
@@ -9959,7 +9958,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A283,1)</f>
         <v>43586</v>
@@ -9980,7 +9979,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" si="16"/>
         <v>43617</v>
@@ -10001,7 +10000,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="16"/>
         <v>43647</v>
@@ -10022,7 +10021,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="16"/>
         <v>43678</v>
@@ -10049,7 +10048,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f t="shared" si="16"/>
         <v>43709</v>
@@ -10076,7 +10075,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f t="shared" si="16"/>
         <v>43739</v>
@@ -10103,7 +10102,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f t="shared" si="16"/>
         <v>43770</v>
@@ -10124,7 +10123,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f>EDATE(A294,1)</f>
         <v>43800</v>
@@ -10151,7 +10150,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="48" t="s">
         <v>201</v>
       </c>
@@ -10169,7 +10168,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>43831</v>
       </c>
@@ -10189,7 +10188,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A297,1)</f>
         <v>43862</v>
@@ -10214,7 +10213,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f t="shared" ref="A299:A309" si="17">EDATE(A298,1)</f>
         <v>43891</v>
@@ -10239,7 +10238,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="17"/>
         <v>43922</v>
@@ -10260,7 +10259,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f t="shared" si="17"/>
         <v>43952</v>
@@ -10281,7 +10280,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f t="shared" si="17"/>
         <v>43983</v>
@@ -10302,7 +10301,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f t="shared" si="17"/>
         <v>44013</v>
@@ -10323,7 +10322,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" si="17"/>
         <v>44044</v>
@@ -10344,7 +10343,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" si="17"/>
         <v>44075</v>
@@ -10371,7 +10370,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>206</v>
@@ -10393,7 +10392,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f>EDATE(A305,1)</f>
         <v>44105</v>
@@ -10414,7 +10413,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" si="17"/>
         <v>44136</v>
@@ -10435,7 +10434,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f t="shared" si="17"/>
         <v>44166</v>
@@ -10456,7 +10455,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="48" t="s">
         <v>208</v>
       </c>
@@ -10474,7 +10473,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>44197</v>
       </c>
@@ -10494,7 +10493,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A311,1)</f>
         <v>44228</v>
@@ -10521,7 +10520,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>210</v>
@@ -10540,7 +10539,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>209</v>
@@ -10559,7 +10558,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>44256</v>
@@ -10580,7 +10579,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A324" si="18">EDATE(A315,1)</f>
         <v>44287</v>
@@ -10607,7 +10606,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" si="18"/>
         <v>44317</v>
@@ -10628,7 +10627,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="18"/>
         <v>44348</v>
@@ -10649,7 +10648,7 @@
       <c r="J318" s="12"/>
       <c r="K318" s="15"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="18"/>
         <v>44378</v>
@@ -10676,7 +10675,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="18"/>
         <v>44409</v>
@@ -10697,7 +10696,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f t="shared" si="18"/>
         <v>44440</v>
@@ -10718,7 +10717,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" si="18"/>
         <v>44470</v>
@@ -10739,7 +10738,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="18"/>
         <v>44501</v>
@@ -10766,7 +10765,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f t="shared" si="18"/>
         <v>44531</v>
@@ -10787,7 +10786,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="48" t="s">
         <v>217</v>
       </c>
@@ -10807,7 +10806,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>44562</v>
       </c>
@@ -10827,7 +10826,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f>EDATE(A326,1)</f>
         <v>44593</v>
@@ -10848,7 +10847,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" ref="A328" si="19">EDATE(A327,1)</f>
         <v>44621</v>
@@ -10875,7 +10874,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>49</v>
@@ -10897,7 +10896,7 @@
         <v>44634</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -10919,7 +10918,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>254</v>
@@ -10939,7 +10938,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="52"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f>EDATE(A328,1)</f>
         <v>44652</v>
@@ -10964,7 +10963,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>49</v>
@@ -10983,7 +10982,7 @@
         <v>44657</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>65</v>
@@ -11000,7 +10999,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>251</v>
@@ -11022,7 +11021,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>253</v>
@@ -11042,7 +11041,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="52"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A332,1)</f>
         <v>44682</v>
@@ -11069,7 +11068,7 @@
         <v>44687</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>252</v>
@@ -11089,7 +11088,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="52"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f>EDATE(A337,1)</f>
         <v>44713</v>
@@ -11116,7 +11115,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>250</v>
@@ -11136,7 +11135,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>44743</v>
@@ -11163,7 +11162,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>65</v>
@@ -11180,7 +11179,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>248</v>
@@ -11200,7 +11199,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>44774</v>
       </c>
@@ -11224,7 +11223,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="41">
         <v>44805</v>
       </c>
@@ -11250,7 +11249,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>246</v>
@@ -11270,7 +11269,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>44835</v>
       </c>
@@ -11296,7 +11295,7 @@
         <v>44846</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>223</v>
@@ -11316,7 +11315,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="52"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>230</v>
@@ -11338,7 +11337,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>224</v>
@@ -11360,7 +11359,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>243</v>
@@ -11382,7 +11381,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>245</v>
@@ -11402,7 +11401,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="53"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>44866</v>
       </c>
@@ -11428,7 +11427,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>242</v>
@@ -11448,7 +11447,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="52"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44896</v>
       </c>
@@ -11474,7 +11473,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>223</v>
@@ -11496,7 +11495,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>221</v>
@@ -11518,7 +11517,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>241</v>
@@ -11538,7 +11537,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="52"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="48" t="s">
         <v>220</v>
       </c>
@@ -11556,7 +11555,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44927</v>
       </c>
@@ -11582,7 +11581,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44958</v>
       </c>
@@ -11608,7 +11607,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="41">
         <v>44986</v>
       </c>
@@ -11632,7 +11631,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>45017</v>
       </c>
@@ -11658,7 +11657,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>45047</v>
       </c>
@@ -11682,7 +11681,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>223</v>
@@ -11704,7 +11703,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>45078</v>
       </c>
@@ -11730,7 +11729,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>221</v>
@@ -11752,7 +11751,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>45108</v>
       </c>
@@ -11775,7 +11774,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>223</v>
@@ -11797,7 +11796,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>45139</v>
       </c>
@@ -11823,7 +11822,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>45170</v>
       </c>
@@ -11849,7 +11848,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>45200</v>
       </c>
@@ -11875,7 +11874,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>221</v>
@@ -11897,7 +11896,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>45231</v>
       </c>
@@ -11923,7 +11922,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>45261</v>
       </c>
@@ -11943,7 +11942,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="48" t="s">
         <v>257</v>
       </c>
@@ -11958,7 +11957,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>45292</v>
       </c>
@@ -11984,7 +11983,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>223</v>
@@ -12003,7 +12002,7 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>232</v>
@@ -12023,11 +12022,13 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>45323</v>
       </c>
-      <c r="B380" s="20"/>
+      <c r="B380" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="C380" s="13"/>
       <c r="D380" s="39"/>
       <c r="E380" s="9"/>
@@ -12036,12 +12037,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H380" s="39"/>
+      <c r="H380" s="39">
+        <v>1</v>
+      </c>
       <c r="I380" s="9"/>
       <c r="J380" s="11"/>
-      <c r="K380" s="20"/>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K380" s="52">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>45352</v>
       </c>
@@ -12059,8 +12064,10 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A382" s="40"/>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" s="40">
+        <v>45383</v>
+      </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
       <c r="D382" s="39"/>
@@ -12075,21 +12082,125 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A383" s="41"/>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" s="40">
+        <v>45413</v>
+      </c>
       <c r="B383" s="15"/>
       <c r="C383" s="42"/>
       <c r="D383" s="43"/>
       <c r="E383" s="51"/>
       <c r="F383" s="15"/>
-      <c r="G383" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G383" s="42"/>
       <c r="H383" s="43"/>
       <c r="I383" s="51"/>
       <c r="J383" s="12"/>
       <c r="K383" s="15"/>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A384" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B384" s="20"/>
+      <c r="C384" s="13"/>
+      <c r="D384" s="39"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="20"/>
+      <c r="G384" s="13"/>
+      <c r="H384" s="39"/>
+      <c r="I384" s="9"/>
+      <c r="J384" s="11"/>
+      <c r="K384" s="20"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B385" s="20"/>
+      <c r="C385" s="13"/>
+      <c r="D385" s="39"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="20"/>
+      <c r="G385" s="13"/>
+      <c r="H385" s="39"/>
+      <c r="I385" s="9"/>
+      <c r="J385" s="11"/>
+      <c r="K385" s="20"/>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B386" s="20"/>
+      <c r="C386" s="13"/>
+      <c r="D386" s="39"/>
+      <c r="E386" s="9"/>
+      <c r="F386" s="20"/>
+      <c r="G386" s="13"/>
+      <c r="H386" s="39"/>
+      <c r="I386" s="9"/>
+      <c r="J386" s="11"/>
+      <c r="K386" s="20"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B387" s="20"/>
+      <c r="C387" s="13"/>
+      <c r="D387" s="39"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="20"/>
+      <c r="G387" s="13"/>
+      <c r="H387" s="39"/>
+      <c r="I387" s="9"/>
+      <c r="J387" s="11"/>
+      <c r="K387" s="20"/>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B388" s="20"/>
+      <c r="C388" s="13"/>
+      <c r="D388" s="39"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="20"/>
+      <c r="G388" s="13"/>
+      <c r="H388" s="39"/>
+      <c r="I388" s="9"/>
+      <c r="J388" s="11"/>
+      <c r="K388" s="20"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B389" s="20"/>
+      <c r="C389" s="13"/>
+      <c r="D389" s="39"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="20"/>
+      <c r="G389" s="13"/>
+      <c r="H389" s="39"/>
+      <c r="I389" s="9"/>
+      <c r="J389" s="11"/>
+      <c r="K389" s="20"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A390" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B390" s="20"/>
+      <c r="C390" s="13"/>
+      <c r="D390" s="39"/>
+      <c r="E390" s="9"/>
+      <c r="F390" s="20"/>
+      <c r="G390" s="13"/>
+      <c r="H390" s="39"/>
+      <c r="I390" s="9"/>
+      <c r="J390" s="11"/>
+      <c r="K390" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12106,10 +12217,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12132,7 +12243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12140,21 +12251,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -12167,7 +12278,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12196,7 +12307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -12222,17 +12333,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12253,7 +12364,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12280,7 +12391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12306,7 +12417,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12332,7 +12443,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12358,7 +12469,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12384,7 +12495,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12410,7 +12521,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12436,7 +12547,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12462,7 +12573,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12482,7 +12593,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12502,7 +12613,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12522,7 +12633,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12543,7 +12654,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12564,7 +12675,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12585,7 +12696,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12606,7 +12717,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12627,7 +12738,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12648,7 +12759,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12669,7 +12780,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12690,7 +12801,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12711,7 +12822,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12732,7 +12843,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12753,7 +12864,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12774,7 +12885,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12795,7 +12906,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12816,7 +12927,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12837,7 +12948,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12858,7 +12969,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12879,7 +12990,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12900,7 +13011,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12921,7 +13032,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12942,7 +13053,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12951,7 +13062,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12960,7 +13071,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12969,7 +13080,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12978,7 +13089,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12987,7 +13098,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12996,7 +13107,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13005,7 +13116,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13014,7 +13125,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13023,7 +13134,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13032,7 +13143,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13041,7 +13152,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13050,7 +13161,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13059,7 +13170,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13068,7 +13179,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13077,7 +13188,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13086,7 +13197,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13095,7 +13206,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13104,7 +13215,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13113,7 +13224,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13122,7 +13233,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13131,7 +13242,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13140,7 +13251,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13149,7 +13260,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13158,7 +13269,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13167,7 +13278,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13176,7 +13287,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13185,7 +13296,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13194,7 +13305,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13203,7 +13314,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
